--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,52 +478,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maruti Suzuki 2006 Sale</t>
+          <t>Brandnew Like 2021 Nissan Kicks 15k Km 60% Finance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tarakeshwor-4, Kathmandu, Bagmati Pradesh</t>
+          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1170000</v>
+        <v>3650000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2006</v>
-      </c>
-      <c r="G2" t="n">
-        <v>120</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2 hours</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012 MODEL CHEVROLET OPTRA FULLY FRESH CONDITION ✳</t>
+          <t>Nissan Xtrail2003 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>900000</v>
+        <v>1300000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -532,34 +530,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="G3" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9 hours</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1999 MODEL LAND ROVER FULLY FRESH CONDITION ‼️</t>
+          <t>Toyota Etios Cross2014 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1400000</v>
+        <v>2100000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -568,34 +566,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Land Rover</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="G4" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9 hours</t>
+          <t>2 hours</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toyota Rav4 1998model Finance Exchange</t>
+          <t>TOYOTA RAV4 1998 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1300000</v>
+        <v>1100000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -611,63 +609,63 @@
         <v>1998</v>
       </c>
       <c r="G5" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16 hours</t>
+          <t>13 hours</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kia Sportage 4wd Fully Fresh Model-2010</t>
+          <t>2013 TOP MODEL FORD ECOSPORT TITANIUM ‼️</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2200000</v>
+        <v>1700000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G6" t="n">
-        <v>1140</v>
+        <v>840</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19 hours</t>
+          <t>14 hours</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Grand I10 2017</t>
+          <t>2012 MODEL CHEVROLET OPTRA FULLY FRESH CONDITION ✳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pokhara, Pokhara Lekhnath-2, Kaski</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2200000</v>
+        <v>900000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -676,34 +674,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="G7" t="n">
-        <v>1260</v>
+        <v>840</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21 hours</t>
+          <t>14 hours</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grand I10 Asta 2014 Model</t>
+          <t>Toyota Rav4 1998model Finance Exchange</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lr International, Kathmandu-23, Kathmandu</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1850000</v>
+        <v>1300000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -712,11 +710,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="G8" t="n">
         <v>1260</v>
@@ -730,52 +728,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mercedes Benz C- Class 1995 Model On Sale!</t>
+          <t>Subaru Japanese 4wd Fully Fresh Model-2007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Madhyapur Thimi-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2650000</v>
+        <v>1900000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Subaru</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="G9" t="n">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>24 hours</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mercedes Benz. C-Classs C250 Pure German Car 1995</t>
+          <t>Well Condition Hyundai I20 Asta 2011 On Sale</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bagmati Petrol Pump, Araniko Highway, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
+          <t>Shanti Auto Pvt.ltd, Kathmandu-32, Kathmandu</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2650000</v>
+        <v>1575000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -784,34 +782,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="G10" t="n">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>1 day</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Datsun 2017 For Sale And Exchange</t>
+          <t>Grand I10 Asta 2014 Model</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dibya Marg, Kathmandu-6, Kathmandu, Bagmati Pradesh</t>
+          <t>Lr International, Kathmandu-23, Kathmandu</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1375000</v>
+        <v>1850000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -820,34 +818,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G11" t="n">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>1 day</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swift Dizer 2013 Model</t>
+          <t>Mercedes Benz C- Class 1995 Model On Sale!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kathmandu-31, Kathmandu</t>
+          <t>Madhyapur Thimi-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1499999</v>
+        <v>2650000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -856,11 +854,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="G12" t="n">
         <v>2880</v>
@@ -874,16 +872,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KIA Sonet GT Line 2020 Diesel Sunroof For Sale !!</t>
+          <t>Mercedes Benz. C-Classs C250 Pure German Car 1995</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Delight Motors Pvt Ltd, Lalitpur-4, Lalitpur</t>
+          <t>Bagmati Petrol Pump, Araniko Highway, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4050000</v>
+        <v>2650000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -892,70 +890,70 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2020</v>
+        <v>1995</v>
       </c>
       <c r="G13" t="n">
-        <v>4320</v>
+        <v>2880</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2014 MODEL TOYOTA ETIOS CROSS (FULLY FRESH ‼️</t>
+          <t>Datsun 2017 For Sale And Exchange</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Itachhen, itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Dibya Marg, Kathmandu-6, Kathmandu, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2300000</v>
+        <v>1375000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G14" t="n">
-        <v>4320</v>
+        <v>2880</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1990 MODEL MITSUBISHI PAJERO SUV JEEP 4WD ‼️</t>
+          <t>2021 Seltos With Sun Roof</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Family Hospital, Lalitpur-15, Lalitpur</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>800000</v>
+        <v>4100000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -964,11 +962,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="G15" t="n">
         <v>4320</v>
@@ -982,16 +980,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mazda3 2007model Finance Exchange9707167125</t>
+          <t>Nissan Magnite XL 2021 For Sale And Exchange !!</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Delight Motors Pvt Ltd, Lalitpur-4, Lalitpur</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1300000</v>
+        <v>2525000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1000,34 +998,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="G16" t="n">
-        <v>5760</v>
+        <v>4320</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Renault Kwid 2017 Model For Sale</t>
+          <t>2012 MODEL FIGO TITANIUM SINGLE USER 📞9851198499</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dn Automobiles Pvt. Ltd., Nagarjun-4, Kathmandu</t>
+          <t>Gyan Jyoti Boarding School, साचल मार्ग, Sanepa, Lalitpur, Lalitpur Metropolitan City, Lalitpur</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1350000</v>
+        <v>1075000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1036,34 +1034,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="G17" t="n">
-        <v>5760</v>
+        <v>4320</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jeep Compass Longitude 2018 Model For Sale</t>
+          <t>Bolero Pickup 2019 Model 4x4 Camper, 23 Lot</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dn Automobiles Pvt. Ltd., Nagarjun-4, Kathmandu</t>
+          <t>Sifal Ground, Jaya Bageshwari Marg, Kathmandu-7, Kathmandu</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5800000</v>
+        <v>1528000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1072,25 +1070,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G18" t="n">
-        <v>5760</v>
+        <v>4320</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FORD ECOSPORT TITANIUM 2013 TOP MODEL ‼️</t>
+          <t>KIA RIO 2011 MODEL FULLY FRESH CONDITION ‼️</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1099,7 +1097,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1700000</v>
+        <v>1100000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1108,47 +1106,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G19" t="n">
-        <v>7200</v>
+        <v>5760</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>4 days</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SIRION MYVI SXI 2010 MODEL 9818846575</t>
+          <t>Isuzu Highlander 2020 Silver</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Pokhara Airport, Pokhara Lekhnath-7, Kaski</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Isuzu</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="G20" t="n">
         <v>7200</v>
@@ -1162,20 +1160,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Well Condition Hyundai I20 Asta 2010 On Sale</t>
+          <t>Excellent 2005 Hyundai Getz Full Option</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shanti Auto Pvt.ltd, Kathmandu-32, Kathmandu</t>
+          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1500000</v>
+        <v>625000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1184,7 +1182,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="G21" t="n">
         <v>7200</v>
@@ -1198,29 +1196,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Excellent Condition Ford Ecosport Trend 2018 Sale</t>
+          <t>NISSAN X-TRAIL 2003 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shanti Auto Pvt.ltd, Devasthal Marg, Kathmandu-32, Kathmandu</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2375000</v>
+        <v>1400000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="G22" t="n">
         <v>7200</v>
@@ -1234,29 +1232,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kia Sonet Diesel Engine 2021 Model Single Hand</t>
+          <t>Ford EcoSport Titanium 2014 Model 9818846575</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kusunti, Lalitpur, Ring Road Dakshin, Lalitpur-14, Lalitpur, Bagmati Pradesh</t>
+          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3975000</v>
+        <v>2300000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="G23" t="n">
         <v>7200</v>
@@ -1270,29 +1268,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chery QQ 2010 Sell Or Exchange With Bike</t>
+          <t>Excellent Condition Santro 2007 Vehicle On Sale</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>New Plaza Marg, Bansh Ghari, Kathmandu Metropolitan City, Kathmandu</t>
+          <t>Devsthal Marg, Kathmandu-32, Kathmandu, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450000</v>
+        <v>1050000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
       <c r="F24" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="G24" t="n">
         <v>7200</v>
@@ -1306,88 +1304,88 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hyundai I20 Active S 2016 Model</t>
+          <t>Single User Like New Suzuki Baleno Delta 2018 Sale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bogati Marg, Bogati Tol, Buddha Nagar, Kathmandu Metropolitan City, Kathmandu</t>
+          <t>Shanti Auto Pvt.ltd, Devasthal Marg, Kathmandu-32, Kathmandu</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2475000</v>
+        <v>2250000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G25" t="n">
-        <v>8640</v>
+        <v>7200</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>5 days</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Toyota Corolla 1997 Atto Gear Sell And Exchange</t>
+          <t>Sirion Myvi2010 Model Finance Exchange9707167125</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shankhamul, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>550000</v>
+        <v>800000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="G26" t="n">
-        <v>8640</v>
+        <v>7200</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>5 days</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Volkswagen Tiguan 2014 2.0Litre TSI Petrol Manual</t>
+          <t>KIA Picanto 2010 Model 9823657076</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maharajgunj, Lazimpat Road, Kathmandu-3, Kathmandu</t>
+          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4000000</v>
+        <v>930000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1396,11 +1394,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G27" t="n">
         <v>8640</v>
@@ -1414,16 +1412,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chevrolet Optra 2012 Model Fully Fresh ‼️</t>
+          <t>Grand I10 Sportz 2018 Model</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Jawalakhel, Lalitpur-4, Lalitpur</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1000000</v>
+        <v>2350000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1432,34 +1430,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="G28" t="n">
-        <v>10080</v>
+        <v>8640</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>6 days</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nissan X-Trail 2002 Model Fully Fresh Condition 🍁</t>
+          <t>Kia Picanto 2010 Model Exchange Available ⚡️</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Itachhen, itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Madhyapur Thimi, Madhyapur Thimi Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1400000</v>
+        <v>935000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1468,11 +1466,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G29" t="n">
         <v>10080</v>
@@ -1486,16 +1484,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Toyota Etios Cross 2014 Model Finance Exchange ⚡️</t>
+          <t>Mitsubishi Pajero 1990 Model Fully Fresh ‼️💥</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>itachhen, Itachhen, Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
+          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1940000</v>
+        <v>800000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1504,11 +1502,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="G30" t="n">
         <v>10080</v>
@@ -1522,16 +1520,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SUBARU 2007 Model 9818846575</t>
+          <t>Landrover’S Freelander 2006 Model Yrgent Sell</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Shiva Shakti Saving And Credit Cooperative, Mandev Marg, Thapa tol, Lakhaju Tol, Changunarayan Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1800000</v>
+        <v>2820000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1540,11 +1538,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Subaru</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G31" t="n">
         <v>10080</v>
@@ -1558,29 +1556,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toyota Camery 2007 Model On Peice Car In Nepal</t>
+          <t>Sirion Myvi 2010 Model Finance Exchange Available</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shiva Shakti Saving And Credit Cooperative, Mandev Marg, Thapa tol, Lakhaju Tol, Changunarayan Municipality, Bhaktapur</t>
+          <t>Yalachhen, Aadarsha, Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3200000</v>
+        <v>789000</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="G32" t="n">
         <v>11520</v>
@@ -1594,16 +1592,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ford Ecosport Ambient 2017 (Single Hand)</t>
+          <t>Land Rover 4wd Jeep 1999model 9766892933</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chamati, Saiyojan Marg, Kathmandu-16, Kathmandu</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1925000</v>
+        <v>14</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1612,11 +1610,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Jeep</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="G33" t="n">
         <v>11520</v>
@@ -1630,16 +1628,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Excellent Condition 2020 Kia Seltos HTH+ On Sale</t>
+          <t>Datsun Go 2016 Model Serious Buyer -9813109263</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Devsthal Marg, Kathmandu-32, Kathmandu, Bagmati Pradesh</t>
+          <t>Ghalcha Restro, Chandra Binayak Marg, Bulbulley, Chabahil, Kathmandu Metropolitan City, Kathmandu</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>44000000</v>
+        <v>950000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1648,11 +1646,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G34" t="n">
         <v>12960</v>
@@ -1666,128 +1664,128 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maruti Eeco Cargo 2024 Single Hand</t>
+          <t>Mahindra E20 Ev Sell And Exchange 2016</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Radhe Radhe House, Madhyapur Thimi-2, Bhaktapur</t>
+          <t>Shankhamul, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1325000</v>
+        <v>900000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="G35" t="n">
-        <v>12960</v>
+        <v>15840</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>11 days</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAND ROVER 1999 MODEL FULLY FRESH CONDITION ‼️</t>
+          <t>Kia Soul Ev Sell And Exchange 2018</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Kshitij Nagar, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1400000</v>
+        <v>2000000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Land Rover</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="G36" t="n">
-        <v>12960</v>
+        <v>15840</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>11 days</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chevrolet Optra Sedan Car 2012 Model ,9766892933</t>
+          <t>Tata Zest Silver Color , 2016 Model ,</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Sanepa, Lalitpur-2, Lalitpur</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Tata</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G37" t="n">
-        <v>12960</v>
+        <v>15840</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>11 days</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sirio Myvi 2010 Model 9766892933</t>
+          <t>SIRION MYVI SXI 2010 Model Fully Fresh Condition ⚡</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>890000</v>
+        <v>900000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1799,27 +1797,27 @@
         <v>2010</v>
       </c>
       <c r="G38" t="n">
-        <v>12960</v>
+        <v>17280</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>12 days</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Land Rover1999model Finance Exchange</t>
+          <t>Deepal So7 2024 As Brand New</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Kholagaal, Bhairav Galli, Kathmandu-2, Kathmandu, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1500000</v>
+        <v>6200000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1828,34 +1826,34 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Land Rover</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="G39" t="n">
-        <v>14400</v>
+        <v>17280</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>12 days</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nissan X-Trail 4wd Jeep 2003 Model Son Sale!</t>
+          <t>Mazda3 2007model Finance Exchange</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ghalate, Suryabinayak-6, Bhaktapur, Bagmati Pradesh</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1400000</v>
+        <v>1300000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1864,34 +1862,34 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="G40" t="n">
-        <v>14400</v>
+        <v>17280</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>12 days</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ford Freestyle 2021 Only18K Km Run</t>
+          <t>Hilander Isuzu Dmax 2020model</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sitapaila, Dharke, Nagarjun-4, Kathmandu, Bagmati Pradesh</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2350000</v>
+        <v>3550000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1900,106 +1898,106 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Isuzu</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G41" t="n">
-        <v>14400</v>
+        <v>18720</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>13 days</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bolero Camper 2015 Last Double Cabin Fresh ....</t>
+          <t>LAND Rover 1999 Model Exchange Or Finance Ava</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Like New</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Land Rover</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="G42" t="n">
-        <v>14400</v>
+        <v>20160</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>14 days</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Suzuki Astar Vxi 2009</t>
+          <t>SUBARU 2007 Model Exchange Or Finance Also Availab</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>925000</v>
+        <v>1900000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Subaru</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G43" t="n">
-        <v>15840</v>
+        <v>20160</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>14 days</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hyundai Grand I10 Asta O 2015 Model Single Hand</t>
+          <t>SUBARU 2007 Model Fully Fresh ‼️</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tilintar, Basundhara Chauki, Kathmandu Metropolitan City, Kathmandu</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2075000</v>
+        <v>1900000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2008,106 +2006,106 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Subaru</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="G44" t="n">
-        <v>15840</v>
+        <v>20160</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>14 days</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ririon Myvi 2010 Model Finance Exchange</t>
+          <t>Ford Ecosport Titanium 2021 Model</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Nagarjun, Nagarjun Municipality, Kathmandu</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>900000</v>
+        <v>3050000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="G45" t="n">
-        <v>15840</v>
+        <v>20160</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>14 days</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TOYOTA ETIOS CROSS 2014 MODEL FULLY FRESH 💥‼️</t>
+          <t>Suzuki VXI 2005</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Chabahil, Kathmandu-31, Kathmandu</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="G46" t="n">
-        <v>15840</v>
+        <v>21600</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>15 days</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Japanese 4wd Subaru2007model Finance Exchange</t>
+          <t>2021 Breeza Zxi+petrol Singlehand Sale,Exng50%Loan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Mata Subhalaxmi Automobiles, Gokarneshwor-5, Kathmandu</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1900000</v>
+        <v>3650000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2116,34 +2114,34 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Subaru</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="G47" t="n">
-        <v>17280</v>
+        <v>23040</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>16 days</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Singelhand 2012 Peugeot 408 Automatic 32k Km</t>
+          <t>Tata Nexon Xz+sunroof 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
+          <t>Lalitpur Imadol 3, Balkumari-Balkot road, Mahalaxmi-3, Lalitpur</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1675000</v>
+        <v>3600000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2152,70 +2150,70 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Tata</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="G48" t="n">
-        <v>17280</v>
+        <v>24480</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Singelhand 2018 Nissan Terrano 1.6 With Finance</t>
+          <t>TOYOTA ETIOS CROSS 2014 Model ☎️9818846575</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2190000</v>
+        <v>2300000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G49" t="n">
-        <v>17280</v>
+        <v>24480</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2009 Model Kia Picanto Full Opsan Car Bikrima</t>
+          <t>Mitsubishi Pajero 1990 Model Fully Fresh 💥‼️</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1332/77 40026AA, Krishna marga, Kathmandu-32, Kathmandu, Bagmati Pradesh</t>
+          <t>Itachhen, itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>875000</v>
+        <v>800000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2224,34 +2222,34 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="G50" t="n">
-        <v>18720</v>
+        <v>24480</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Land Rover Freelander 2006 Model 9823657076</t>
+          <t>Eco Sport2013 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2750000</v>
+        <v>1700000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2260,34 +2258,34 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Land Rover</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="G51" t="n">
-        <v>18720</v>
+        <v>24480</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hyundai Velester Gls Auto Sunroof 2012 Model</t>
+          <t>Sirion Myvi2010 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naxal, Sama Marga, Kathmandu-1, Kathmandu</t>
+          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4700000</v>
+        <v>900000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2296,25 +2294,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G52" t="n">
-        <v>18720</v>
+        <v>24480</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nissan X-Trail 2002 Model Fully Fresh ‼️💥</t>
+          <t>Chevrolet Optra 2012 Model Fully Fresh Condition ⚡</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2323,7 +2321,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2332,34 +2330,34 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="G53" t="n">
-        <v>20160</v>
+        <v>24480</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>17 days</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2003 Model Nissan X-Trail Fully Fresh ‼️</t>
+          <t>Grand I10 Nios 2021 Model Magna On Sale</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Naya Naikap, Chandragiri Municipality, Kathmandu</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1400000</v>
+        <v>2800000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2368,34 +2366,34 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="G54" t="n">
-        <v>20160</v>
+        <v>25920</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>18 days</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Toyota Rav4 1998 Model Fully Fresh ‼️</t>
+          <t>SINGLE HANDED Celerio Vxi ( 2019 Model ) For Sale</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Tinkune Marg, Kuleshwar, Kathmandu Metropolitan City, Kathmandu</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1100000</v>
+        <v>2050000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2404,34 +2402,34 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="G55" t="n">
-        <v>20160</v>
+        <v>27360</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>19 days</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Toyota Etios Cross2014 Model Finance Exchange</t>
+          <t>Kia Picanto Petrol 2010 Model On Sale!</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Sangam Colony, Madhyapur Thimi-5, Bhaktapur, Bagmati Pradesh</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2300000</v>
+        <v>970000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2440,34 +2438,34 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G56" t="n">
-        <v>21600</v>
+        <v>27360</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>19 days</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Skoda Kushaq 2021 Model 9851137245</t>
+          <t>Kia Picanto 2010 Model 9823657076</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B &amp; B Hospital, Lalitpur-17, Lalitpur</t>
+          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4100000</v>
+        <v>930000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2476,34 +2474,34 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="G57" t="n">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>20 days</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kia Seltos HTX 2023 Model With Sunroof 9851137245</t>
+          <t>Hyundai Eon 2014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B &amp; B Hospital, Lalitpur-17, Lalitpur</t>
+          <t>Bhrikuti Mandap khulla bazzar, Bhadrakali Marg, Thapathali, Kathmandu Metropolitan City, Kathmandu</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5600000</v>
+        <v>1165000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2512,522 +2510,90 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="G58" t="n">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>20 days</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2016 Model Creta S Fully Fresh Sale,Exng50%Loan</t>
+          <t>Nissan Sunny 2019 Single Hand</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mata Subhalaxmi Automobiles, Gokarneshwor-5, Kathmandu</t>
+          <t>Typical Marga, Basnetgaun, Lalitpur, Lalitpur Metropolitan City, Lalitpur</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3050000</v>
+        <v>1990000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Like New</t>
+          <t>Used</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G59" t="n">
-        <v>21600</v>
+        <v>30240</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>21 days</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>✅ Foton Tunland E 2021 | 4WD | 62,000 KM | Excelle</t>
+          <t>SIRIO MYVI SXI 2010 Model Exchange Or Finance Also</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>900000</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
       <c r="F60" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="G60" t="n">
-        <v>23040</v>
+        <v>30240</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>16 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MG Zs EV 2023</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>3950000</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G61" t="n">
-        <v>23040</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>16 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SUBARU 2007 MODEL FULLY FRESH CONDITION 💥‼️</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G62" t="n">
-        <v>23040</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>16 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SUBARU 2007 Model Fully Fresh 💥 SUV JEEP 4WD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G63" t="n">
-        <v>23040</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>16 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2008 Model Fresh Daihatsu Sirion 1000Cc On Sale</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Samajik Marg, Kathmandu-14, Kathmandu, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>675000</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>2008</v>
-      </c>
-      <c r="G64" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Nisan Xtrail2002 Model Finance Exchange</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>2002</v>
-      </c>
-      <c r="G65" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Latest Shape 2021 Hyundai Tucson Petrol</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Kathmandu Automobiles Center</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>7350000</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G66" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Kia Picanto 2007</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Shrijanshil Tol, Basundhara, Kathmandu Metropolitan City, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>775000</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G67" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Alto 800 LXI -2018</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Kathmandu, Kathmandu-11, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1450000</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G68" t="n">
-        <v>25920</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>18 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Maruti Suzuki Swift Dzire ZXI 2017 Model</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Kathmandu-12, Kathmandu, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Suzuki</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2017</v>
-      </c>
-      <c r="G69" t="n">
-        <v>25920</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>18 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Renault Duster 4wd 2016 Sell And Exchange</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Shankhamul, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>2200000</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G70" t="n">
-        <v>25920</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>18 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Landrover Freelander 1 2006 Model 9823657076</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>2006</v>
-      </c>
-      <c r="G71" t="n">
-        <v>27360</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>19 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>WAGON R VXI 2013</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Shiva Jyoti Auto Centre, Kathmandu-15, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1375000</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>2013</v>
-      </c>
-      <c r="G72" t="n">
-        <v>27360</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>19 days</t>
+          <t>21 days</t>
         </is>
       </c>
     </row>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,432 +448,1016 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>seller_type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>seller_phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ad_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>condition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>posted_minutes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>posted_display</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>posted_datetime</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>posted_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>seller_name</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>seller_ads</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_option</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>kilometers</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brandnew Like 2021 Nissan Kicks 15k Km 60% Finance</t>
+          <t>Chevrolet Beat Full Option Fully Loaded Car 2010 M</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3650000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ba88929995e6533c5687cdfef4f16e06</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>750</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ekantakuna to Nakhu Road</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lalitpur Metropolitan City</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45870.69118646977</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Prakiran</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nissan Xtrail2003 Model Finance Exchange</t>
+          <t>KIA SPORTAGE 4AWD 2010 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1300000</v>
+        <v>9818846575</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>120</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
+          <t>18b9e70c4869a139985f82efd501ce41</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>240</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4 hours</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45870.56132535866</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>318</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toyota Etios Cross2014 Model Finance Exchange</t>
+          <t>JAPANESE SUBARU 4WD SUV JEEP 2007 MODEL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2100000</v>
+        <v>9818846575</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>a47b313080208b53fb5efc0b6afbc663</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G4" t="n">
-        <v>120</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2 hours</t>
-        </is>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>300</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5 hours</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45870.51965869199</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>318</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TOYOTA RAV4 1998 MODEL FULLY FRESH ‼️</t>
+          <t>Siroion Myvi2010 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1100000</v>
+        <v>9707167125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>29432aea76dd3820a9fc43228c15ab2f</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>800000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1998</v>
-      </c>
-      <c r="G5" t="n">
-        <v>780</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>13 hours</t>
-        </is>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>420</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7 hours</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>45870.43632535866</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>427</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2013 TOP MODEL FORD ECOSPORT TITANIUM ‼️</t>
+          <t>Byd Atto 3 Superior || 2024 || Forest Green</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1700000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="G6" t="n">
-        <v>840</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>14 hours</t>
-        </is>
+          <t>7983923b0fda876dc77570e570a82052</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>540</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>9 hours</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>45870.35299202533</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Yojesh Agrawal</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012 MODEL CHEVROLET OPTRA FULLY FRESH CONDITION ✳</t>
+          <t>SIRIO MYVI SXI 2010 MODEL FULLY FRESH CONDITION ‼️</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>9818846575</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>a961972a9294eccc8ec0ff104503a634</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>900000</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Chevrolet</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G7" t="n">
-        <v>840</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>14 hours</t>
-        </is>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1140</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>19 hours</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>45869.93632535866</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>394</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toyota Rav4 1998model Finance Exchange</t>
+          <t>Land Rover1999model Finance Exchange</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9707167125</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>d9342b7df431cf495a8a05898b324d39</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Land Rover</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1998</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>21 hours</t>
-        </is>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>45869.72799202533</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>xyang lama</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>164</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Subaru Japanese 4wd Fully Fresh Model-2007</t>
+          <t>Renault Duster Rxe 2017 Fresh Suv For Sale</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1900000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G9" t="n">
+          <t>ef3a7f897fa33c413e8dbb51451393ac</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1875000</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Kumaripati</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Lalitpur-5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1440</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>24 hours</t>
-        </is>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>45869.72799202533</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Suraj Stha</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Well Condition Hyundai I20 Asta 2011 On Sale</t>
+          <t>Toyota Yaris 2010 Single Hand</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shanti Auto Pvt.ltd, Kathmandu-32, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1575000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G10" t="n">
+          <t>e81acf8af033e9bd5ace421fa497f46e</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1475000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Thapathali</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Kathmandu-11</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1440</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>1 day</t>
         </is>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>45869.72799202533</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Hsinam Nzrhm</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Grand I10 Asta 2014 Model</t>
+          <t>Volkswagen Polo 2011 Highline 1.6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lr International, Kathmandu-23, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1850000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3e1bc92ce2bd0a18439a22b4a0d8025c</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1325000</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1440</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1 day</t>
-        </is>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Tulsi Mehar Galli</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Kumaripati</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Itapukhu</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>45868.72799202533</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Suzan Shrestha</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mercedes Benz C- Class 1995 Model On Sale!</t>
+          <t>Nissan Xtrial 2010 Manual Full Option Suv With 4*4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Madhyapur Thimi-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>Business/Dealer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4829e7cff1398ec4b526d3949eae7abc</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2650000</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Mercedes</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1995</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>2880</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2 days</t>
         </is>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>45868.72799202533</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Films Ltd</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -877,140 +1468,332 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bagmati Petrol Pump, Araniko Highway, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>9823057209</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77bf82808d0e842e4c56d4b2f2214da1</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2650000</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>1995</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bagmati Petrol Pump</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Araniko Highway</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Balkumari</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Madhyapur Thimi Municipality</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>2880</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2 days</t>
         </is>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>45868.72799202533</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>shyam</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>144</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Datsun 2017 For Sale And Exchange</t>
+          <t>Single Hand Datsun Go 2014 ,35000 Km Run</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dibya Marg, Kathmandu-6, Kathmandu, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1375000</v>
+        <v>9860269052</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0bace0a69ace25187ddf6cec09bcc57f</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1025000</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Datsun</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Samakhushi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Kathmandu-26</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>2880</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2 days</t>
         </is>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>45868.72799202533</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Siddhartha Dangol</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021 Seltos With Sun Roof</t>
+          <t>KIA SPORTAGE 4AWD 2010 Model Fully Fresh ‼️</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Family Hospital, Lalitpur-15, Lalitpur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4100000</v>
+        <v>9818846575</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G15" t="n">
+          <t>e446a50997665013719cce2b865ad064</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>4320</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>3 days</t>
         </is>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>45867.72799202533</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>318</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nissan Magnite XL 2021 For Sale And Exchange !!</t>
+          <t>KIA RIO 2011 Model Fully Fresh ‼️</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Delight Motors Pvt Ltd, Lalitpur-4, Lalitpur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2525000</v>
+        <v>9818846575</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>d1a905311d8b45898acfb80a2082e7d6</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>4320</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>3 days</t>
         </is>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>45867.72799202533</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>318</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -1021,392 +1804,924 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gyan Jyoti Boarding School, साचल मार्ग, Sanepa, Lalitpur, Lalitpur Metropolitan City, Lalitpur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>9851198499</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>d53e38dc9694b821c2cbc927b34b9561</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1075000</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>2012</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Gyan Jyoti Boarding School</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>साचल मार्ग</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sanepa</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>4320</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>3 days</t>
         </is>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>45867.72799202533</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Suman Shrestha</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolero Pickup 2019 Model 4x4 Camper, 23 Lot</t>
+          <t>I10 Magna 2013 Model</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sifal Ground, Jaya Bageshwari Marg, Kathmandu-7, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1528000</v>
+        <v>9860269052</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+          <t>1bfdb47328e86cb6b652048f550439cc</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Samakhushi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Kathmandu-26</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>4320</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>3 days</t>
         </is>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>45867.72799202533</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Siddhartha Dangol</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KIA RIO 2011 MODEL FULLY FRESH CONDITION ‼️</t>
+          <t>Suzuki Baleno Zeta 2016 Model On Sale! 9764606613</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1100000</v>
+        <v>9764606613</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>fc4b0a1651f6974c7ea623b2167f05d3</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5760</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>4 days</t>
-        </is>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Suzuki</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Ghalate</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Suryabinayak-6</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>4320</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>45867.72799202533</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>samundra lama</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>16</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Isuzu Highlander 2020 Silver</t>
+          <t>KIA RIO 2011 MODEL FULLY FRESH CONDITION ‼️</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pokhara Airport, Pokhara Lekhnath-7, Kaski</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4000000</v>
+        <v>9818846575</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Isuzu</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7200</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5 days</t>
-        </is>
+          <t>d14b72d31b5c1071cdcb4e882f1106bc</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2011</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>5760</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>45866.72799202533</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>394</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Excellent 2005 Hyundai Getz Full Option</t>
+          <t>2002 MODEL NISSAN X-TRAIL FULLY FRESH CONDITION ‼️</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kausaltar, Madhyapur Thimi-2, Bhaktapur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>625000</v>
+        <v>9818846575</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2005</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7200</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5 days</t>
-        </is>
+          <t>b22b3a8da6126859e5114eec128b91b0</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>itachhen</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>5760</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>45866.72799202533</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>394</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NISSAN X-TRAIL 2003 MODEL FULLY FRESH ‼️</t>
+          <t>Eco Sport2013 Model Finance Exchange9707167125</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1400000</v>
+        <v>9707167125</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2003</v>
-      </c>
-      <c r="G22" t="n">
+          <t>d5d2abfa48960ea7290ec16d832946b8</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>7200</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>45865.72799202533</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>427</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ford EcoSport Titanium 2014 Model 9818846575</t>
+          <t>Chevrolate Optra2012 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2300000</v>
+        <v>9707167125</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G23" t="n">
+          <t>9223ad3e517eef7ead44920bb5fac922</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>900000</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>7200</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>45865.72799202533</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>427</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Excellent Condition Santro 2007 Vehicle On Sale</t>
+          <t>NISSAN X-TRAIL 2003 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Devsthal Marg, Kathmandu-32, Kathmandu, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1050000</v>
+        <v>9818846575</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G24" t="n">
+          <t>37f3b5c1f7d1714f7a2bbb1bc2122d41</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>7200</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>45865.72799202533</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>394</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Single User Like New Suzuki Baleno Delta 2018 Sale</t>
+          <t>KIA SPORTAGE 2010 MODEL FULLY FRESH 9818846575</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shanti Auto Pvt.ltd, Devasthal Marg, Kathmandu-32, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2250000</v>
+        <v>9818846575</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Suzuki</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G25" t="n">
+          <t>03b32533a2f52b9397ee9e5ed43c867f</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>7200</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>45865.72799202533</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>394</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sirion Myvi2010 Model Finance Exchange9707167125</t>
+          <t>Single User Like New Suzuki Baleno Delta 2018 Sale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>800000</v>
+          <t>Business/Dealer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>5a949d69900ebfb4780881f8bee1efa6</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Suzuki</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Shanti Auto Pvt.ltd</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Devasthal Marg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Kathmandu-32</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>7200</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>45865.72799202533</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SHANTI AUTO</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>18</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KIA Picanto 2010 Model 9823657076</t>
+          <t>Mazda 3 2008 Sell And Exchange</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>930000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G27" t="n">
+          <t>a4a43113c6c7d6e51659b8f1897d079e</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mazda</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Shankhamul</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>बागमती कोरिडोर</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Kathmandu-10</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>8640</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>6 days</t>
         </is>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>45864.72799202533</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Krishna Acharya</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>105</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1417,1184 +2732,2370 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jawalakhel, Lalitpur-4, Lalitpur</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>96ba58f65fde6f22058620c1c908a8fd</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>2350000</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>2018</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Jawalakhel</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Lalitpur-4</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>8640</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>6 days</t>
         </is>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>45864.72799202533</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Prakash Sapkota</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kia Picanto 2010 Model Exchange Available ⚡️</t>
+          <t>Kia Spotage Awd 2010 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Madhyapur Thimi, Madhyapur Thimi Municipality, Bhaktapur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>935000</v>
+        <v>9707167125</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>580308c43ac56bfb718ec72dcc74a040</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Kia</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>2010</v>
       </c>
-      <c r="G29" t="n">
-        <v>10080</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>7 days</t>
-        </is>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>8640</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>45864.72799202533</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>427</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mitsubishi Pajero 1990 Model Fully Fresh ‼️💥</t>
+          <t>Wagon R 2012 In Excellent Condition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>800000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>b1de909551f34de6b6e98ea6a6f40f9b</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mitsubishi</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1990</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Thimi</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Madhyapur Thimi-2</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>10080</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>45863.72799202533</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Mukunda Dahal</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Landrover’S Freelander 2006 Model Yrgent Sell</t>
+          <t>FORD ECOSPORT TITANIUM 2013 TOP MODEL ‼️</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shiva Shakti Saving And Credit Cooperative, Mandev Marg, Thapa tol, Lakhaju Tol, Changunarayan Municipality, Bhaktapur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2820000</v>
+        <v>9818846575</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>37b0f40ebb118b05a493fdf77afe87ae</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2006</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10080</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>7 days</t>
-        </is>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>11520</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>45862.72799202533</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SURESH LAMA</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>394</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sirion Myvi 2010 Model Finance Exchange Available</t>
+          <t>Nissan X Trial 2003 Model A1 Condition</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Yalachhen, Aadarsha, Bhaktapur, Bhaktapur Municipality, Bhaktapur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>789000</v>
+        <v>9823057209</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G32" t="n">
+          <t>df59ebf825eb4f7df18df012cbabedf8</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Kholagaal</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>उत्तर ढोका रोड</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Kathmandu-1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>11520</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>8 days</t>
         </is>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>45862.72799202533</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>823057209145</v>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Land Rover 4wd Jeep 1999model 9766892933</t>
+          <t>EcoSport Thunder Titanium 2020 Sell And Exchange</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>14</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>056e280f109cdc40049a113534666023</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Jeep</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>11520</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>8 days</t>
-        </is>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Shankhamul</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>बागमती कोरिडोर</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Kathmandu-10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Krishna Acharya</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>105</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Datsun Go 2016 Model Serious Buyer -9813109263</t>
+          <t>Chevrolet Optra Sedan Car 2012 Model</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ghalcha Restro, Chandra Binayak Marg, Bulbulley, Chabahil, Kathmandu Metropolitan City, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>950000</v>
+        <v>9766892933</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>aa579b612eb02774fca0312010e5fb2c</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Datsun</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>12960</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>9 days</t>
         </is>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Prabin Tamang</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>100</v>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mahindra E20 Ev Sell And Exchange 2016</t>
+          <t>2020 Tata Nexon Xz+ On Sale</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shankhamul, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>900000</v>
+          <t>Business/Dealer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Mahindra</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G35" t="n">
-        <v>15840</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>11 days</t>
-        </is>
+          <t>597f60652739469a6bc3d82857165df1</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tata</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Kathmandu Ringroad</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Kathmandu Metropolitan City</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Nagarjun Municipality</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>D.N Automobiles</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>11</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kia Soul Ev Sell And Exchange 2018</t>
+          <t>NISSAN X-TRAIL 2002 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kshitij Nagar, बागमती कोरिडोर, Kathmandu-10, Kathmandu, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2000000</v>
+        <v>9818846575</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G36" t="n">
-        <v>15840</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>11 days</t>
-        </is>
+          <t>0b78693d4d1c215822183a5ecaf9437a</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>318</v>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tata Zest Silver Color , 2016 Model ,</t>
+          <t>Ford Figo ZXI 2010 Model</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sanepa, Lalitpur-2, Lalitpur</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1500000</v>
+          <t>Business/Dealer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Tata</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G37" t="n">
-        <v>15840</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>11 days</t>
-        </is>
+          <t>553461548097f6bea26c901e0bda4ead</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>850000</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Chandrodaya Marga</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Bhimsen Gola</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sinamangal</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Kathmandu Metropolitan City</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Kantipur Automobiles</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SIRION MYVI SXI 2010 Model Fully Fresh Condition ⚡</t>
+          <t>Kia Sportage 2018 Model</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>900000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G38" t="n">
-        <v>17280</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>12 days</t>
-        </is>
+          <t>23742abe8a72da60c9fc6e4b747b1e78</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Lagankhel</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Nahiti Batukvairab Marga</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Lalitpur-6</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Bibash Koirala</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Deepal So7 2024 As Brand New</t>
+          <t>Indica Vista Petrol 2012 Model 2 Airbag 9851038976</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kholagaal, Bhairav Galli, Kathmandu-2, Kathmandu, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6200000</v>
+        <v>9851038976</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>a48a0c265fc257403937e0ce48d04b9d</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>760000</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G39" t="n">
-        <v>17280</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>12 days</t>
-        </is>
+      <c r="H39" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Golphutar</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Budhanilkantha Municipality</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>12960</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>45861.72799202533</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Keshab Niraula</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mazda3 2007model Finance Exchange</t>
+          <t>Subaru XV 2015</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1300000</v>
+          <t>Business/Dealer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Mazda</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G40" t="n">
-        <v>17280</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>12 days</t>
-        </is>
+          <t>0bd566acd790bacbda6880db459db0e6</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Subaru Nepal</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Naxal Bhagawati Marg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Kathmandu-30</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>14400</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>45860.72799202533</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>VIJAY MOTORS PVT LTD.</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hilander Isuzu Dmax 2020model</t>
+          <t>VW Polo 1.0 2019 Sell And Exchange</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>28c40eebb0d1834752163fa26a855b5d</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>3550000</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Isuzu</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18720</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>13 days</t>
-        </is>
+      <c r="H41" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Shankhamul</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>बागमती कोरिडोर</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Kathmandu-10</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>15840</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>45859.72799202533</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Krishna Acharya</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>105</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LAND Rover 1999 Model Exchange Or Finance Ava</t>
+          <t>Hyundai Grand I10 Asta O 2015 Model Single Hand</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1400000</v>
+        <v>9801203873</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>dd28cd93b6fed9754783f87e5bc9d5e1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2075000</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Land Rover</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G42" t="n">
-        <v>20160</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>14 days</t>
-        </is>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Tilintar</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Basundhara Chauki</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Kathmandu Metropolitan City</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>17280</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>45858.72799202533</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>alin basnet</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SUBARU 2007 Model Exchange Or Finance Also Availab</t>
+          <t>Renault Captur DSL RXL 2018 Model</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1900000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G43" t="n">
-        <v>20160</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>14 days</t>
-        </is>
+          <t>11e2c55ca0382e5abb97f06faa3ec521</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Chappal Karkhana</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Kathmandu-4</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>17280</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>45858.72799202533</v>
+      </c>
+      <c r="P43" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Samir Adhikari</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SUBARU 2007 Model Fully Fresh ‼️</t>
+          <t>Tata Yodhha 4wd Double Cabin 2020 Model</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1900000</v>
+        <v>9851365636</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>772463fe6dbc96ba7794760924f6aab6</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1425000</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2007</v>
-      </c>
-      <c r="G44" t="n">
-        <v>20160</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>14 days</t>
-        </is>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Tata</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Sitapaila</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>संग्रहालय मार्ग</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Nagarjun-4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>17280</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>45858.72799202533</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Muna Baini</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ford Ecosport Titanium 2021 Model</t>
+          <t>Japanese 4wd Subaru2007model Finance Exchange</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nagarjun, Nagarjun Municipality, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3050000</v>
+        <v>9707167125</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G45" t="n">
-        <v>20160</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>14 days</t>
-        </is>
+          <t>d2efac471807252d16dd156d2777dec5</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2007</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>17280</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>45858.72799202533</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>427</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Suzuki VXI 2005</t>
+          <t>Mahindra Scorpio S11 4wd 2018 Model</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chabahil, Kathmandu-31, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1000000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>de52227736d082c30c325f9b946c5756</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>Used</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Suzuki</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2005</v>
-      </c>
-      <c r="G46" t="n">
-        <v>21600</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>15 days</t>
-        </is>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Mahindra</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>18720</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>45857.72799202533</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Sushant Acharya</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021 Breeza Zxi+petrol Singlehand Sale,Exng50%Loan</t>
+          <t>Nishan Kicks 2019 Model 9851137245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mata Subhalaxmi Automobiles, Gokarneshwor-5, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3650000</v>
+        <v>9851137245</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>6680ab3beacdce8257872e4a8a87795e</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3175000</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G47" t="n">
-        <v>23040</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>16 days</t>
-        </is>
+      <c r="H47" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>B &amp; B Hospital</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Lalitpur-17</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>18720</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>45857.72799202533</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Ashik Lama</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>34</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tata Nexon Xz+sunroof 2022</t>
+          <t>Grand I10 Asata 2014 Model</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lalitpur Imadol 3, Balkumari-Balkot road, Mahalaxmi-3, Lalitpur</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3600000</v>
+        <v>9862758987</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Tata</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G48" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+          <t>b3a544d3251d825de85f2018db831b29</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1875000</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Nakkhu Jal Binayak Marg</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Lalitpur-18</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Lalitpur</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>18720</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>45857.72799202533</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Ajay</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TOYOTA ETIOS CROSS 2014 Model ☎️9818846575</t>
+          <t>Sirion Myvi2010 Model Finance Exchange</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2300000</v>
+        <v>9707167125</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G49" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+          <t>5bcc9098eee279463b4c9a51092a4c6f</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>800000</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2010</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Dudhpati</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Bhaktapur-1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>20160</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>45856.72799202533</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Binod Tamang</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>427</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mitsubishi Pajero 1990 Model Fully Fresh 💥‼️</t>
+          <t>Volkswagen Polo 1.0 2019 Sell And Exchange</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Itachhen, itachhen, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>800000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>57df89c26c5ab033a1f03fa1282f777e</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Mitsubishi</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1990</v>
-      </c>
-      <c r="G50" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Shankhamul</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>बागमती कोरिडोर</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Kathmandu-10</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>20160</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>45856.72799202533</v>
+      </c>
+      <c r="P50" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Krishna Acharya</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>105</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eco Sport2013 Model Finance Exchange</t>
+          <t>Mahindra E20 2016 Ev Sell And Exchange</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1700000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2013</v>
-      </c>
-      <c r="G51" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+          <t>9c9aedbe41c4bef96fb8a71216ed45d5</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>900000</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mahindra</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Shankhamul</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>बागमती कोरिडोर</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Kathmandu-10</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>20160</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>45856.72799202533</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Krishna Acharya</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>105</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sirion Myvi2010 Model Finance Exchange</t>
+          <t>Nissan X-Trail 2003 Model Exchange Or Finance Ava</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dudhpati, Bhaktapur-1, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>900000</v>
+        <v>9818846575</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G52" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+          <t>a0d86a8c6fbe543bd129f5d59c3b18fd</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>20160</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>45856.72799202533</v>
+      </c>
+      <c r="P52" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>318</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chevrolet Optra 2012 Model Fully Fresh Condition ⚡</t>
+          <t>LAND ROVER 1999 MODEL FULLY FRESH ‼️</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1000000</v>
+        <v>9818846575</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>3cfa89a25dc3f2d2b8dea0aa85352287</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Chevrolet</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G53" t="n">
-        <v>24480</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>17 days</t>
-        </is>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Land Rover</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Itachhen</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Bhaktapur-2</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Bagmati Pradesh</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>20160</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>45856.72799202533</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>PEMA LAMA</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>318</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Grand I10 Nios 2021 Model Magna On Sale</t>
+          <t>Renault Duster RXZ Diesel Full Option 2016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naya Naikap, Chandragiri Municipality, Kathmandu</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2800000</v>
+        <v>9851024541</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>24b859176c5c4fb50c5433cdaf3c04ae</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2099999</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>Like New</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G54" t="n">
-        <v>25920</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>18 days</t>
-        </is>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Mitra High School</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>University Path</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Kuleshwar</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Kathmandu Metropolitan City</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>21600</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>45855.72799202533</v>
+      </c>
+      <c r="P54" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Srijan shrestha</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SINGLE HANDED Celerio Vxi ( 2019 Model ) For Sale</t>
+          <t>2016 Model Ko Nissan Indio 1000000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tinkune Marg, Kuleshwar, Kathmandu Metropolitan City, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>2050000</v>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G55" t="n">
-        <v>27360</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>19 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Kia Picanto Petrol 2010 Model On Sale!</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sangam Colony, Madhyapur Thimi-5, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>970000</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G56" t="n">
-        <v>27360</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>19 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Kia Picanto 2010 Model 9823657076</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Shankhadar Shakwa statue, Purano Thimi- Naya Thimi, Balkumari, Madhyapur Thimi Municipality, Bhaktapur</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>930000</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G57" t="n">
-        <v>28800</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>20 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Hyundai Eon 2014</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Bhrikuti Mandap khulla bazzar, Bhadrakali Marg, Thapathali, Kathmandu Metropolitan City, Kathmandu</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1165000</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2014</v>
-      </c>
-      <c r="G58" t="n">
-        <v>28800</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>20 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Nissan Sunny 2019 Single Hand</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Typical Marga, Basnetgaun, Lalitpur, Lalitpur Metropolitan City, Lalitpur</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1990000</v>
-      </c>
-      <c r="D59" t="inlineStr">
+          <t>d61ae2979554315f0fa6dac6e9f0a4aa</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Used</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Nissan</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G59" t="n">
-        <v>30240</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>21 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SIRIO MYVI SXI 2010 Model Exchange Or Finance Also</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Itachhen, Bhaktapur-2, Bhaktapur, Bagmati Pradesh</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>900000</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G60" t="n">
-        <v>30240</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>21 days</t>
-        </is>
+      <c r="H55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Sirutar Awas Kshetra</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Madhyapur Thimi</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Changunarayan Municipality</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>21600</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>45855.72799202533</v>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Babita yonjan</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45870.69118646977</v>
+        <v>45870.6976723005</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>45870</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45870.56132535866</v>
+        <v>45870.56781118939</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>45870</v>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45870.51965869199</v>
+        <v>45870.52614452272</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>45870</v>
@@ -829,7 +829,11 @@
       <c r="H5" t="n">
         <v>2010</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -854,7 +858,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45870.43632535866</v>
+        <v>45870.44281118939</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>45870</v>
@@ -911,7 +915,11 @@
       <c r="H6" t="n">
         <v>2024</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -936,7 +944,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45870.35299202533</v>
+        <v>45870.35947785605</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>45870</v>
@@ -1020,7 +1028,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45869.93632535866</v>
+        <v>45869.94281118939</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>45869</v>
@@ -1075,7 +1083,11 @@
       <c r="H8" t="n">
         <v>1999</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -1100,7 +1112,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45869.72799202533</v>
+        <v>45869.73447785605</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>45869</v>
@@ -1186,7 +1198,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45869.72799202533</v>
+        <v>45869.73447785605</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>45869</v>
@@ -1272,7 +1284,7 @@
         </is>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45869.72799202533</v>
+        <v>45869.73447785605</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>45869</v>
@@ -1358,7 +1370,7 @@
         </is>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45868.72799202533</v>
+        <v>45868.73447785605</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>45868</v>
@@ -1415,7 +1427,11 @@
       <c r="H12" t="n">
         <v>2010</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -1440,7 +1456,7 @@
         </is>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45868.72799202533</v>
+        <v>45868.73447785605</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>45868</v>
@@ -1524,7 +1540,7 @@
         </is>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45868.72799202533</v>
+        <v>45868.73447785605</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>45868</v>
@@ -1608,7 +1624,7 @@
         </is>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45868.72799202533</v>
+        <v>45868.73447785605</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>45868</v>
@@ -1692,7 +1708,7 @@
         </is>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45867.72799202533</v>
+        <v>45867.73447785605</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>45867</v>
@@ -1776,7 +1792,7 @@
         </is>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45867.72799202533</v>
+        <v>45867.73447785605</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>45867</v>
@@ -1860,7 +1876,7 @@
         </is>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45867.72799202533</v>
+        <v>45867.73447785605</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>45867</v>
@@ -1944,7 +1960,7 @@
         </is>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45867.72799202533</v>
+        <v>45867.73447785605</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>45867</v>
@@ -2028,7 +2044,7 @@
         </is>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45867.72799202533</v>
+        <v>45867.73447785605</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>45867</v>
@@ -2112,7 +2128,7 @@
         </is>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45866.72799202533</v>
+        <v>45866.73447785605</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>45866</v>
@@ -2196,7 +2212,7 @@
         </is>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45866.72799202533</v>
+        <v>45866.73447785605</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>45866</v>
@@ -2280,7 +2296,7 @@
         </is>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45865.72799202533</v>
+        <v>45865.73447785605</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>45865</v>
@@ -2364,7 +2380,7 @@
         </is>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45865.72799202533</v>
+        <v>45865.73447785605</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>45865</v>
@@ -2448,7 +2464,7 @@
         </is>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45865.72799202533</v>
+        <v>45865.73447785605</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>45865</v>
@@ -2532,7 +2548,7 @@
         </is>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45865.72799202533</v>
+        <v>45865.73447785605</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>45865</v>
@@ -2618,7 +2634,7 @@
         </is>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45865.72799202533</v>
+        <v>45865.73447785605</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>45865</v>
@@ -2704,7 +2720,7 @@
         </is>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45864.72799202533</v>
+        <v>45864.73447785605</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>45864</v>
@@ -2790,7 +2806,7 @@
         </is>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45864.72799202533</v>
+        <v>45864.73447785605</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>45864</v>
@@ -2874,7 +2890,7 @@
         </is>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45864.72799202533</v>
+        <v>45864.73447785605</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>45864</v>
@@ -2960,7 +2976,7 @@
         </is>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45863.72799202533</v>
+        <v>45863.73447785605</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>45863</v>
@@ -3044,7 +3060,7 @@
         </is>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45862.72799202533</v>
+        <v>45862.73447785605</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>45862</v>
@@ -3128,7 +3144,7 @@
         </is>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45862.72799202533</v>
+        <v>45862.73447785605</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>45862</v>
@@ -3214,7 +3230,7 @@
         </is>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>45861</v>
@@ -3298,7 +3314,7 @@
         </is>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>45861</v>
@@ -3384,7 +3400,7 @@
         </is>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>45861</v>
@@ -3468,7 +3484,7 @@
         </is>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>45861</v>
@@ -3554,7 +3570,7 @@
         </is>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>45861</v>
@@ -3640,7 +3656,7 @@
         </is>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>45861</v>
@@ -3724,7 +3740,7 @@
         </is>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45861.72799202533</v>
+        <v>45861.73447785605</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>45861</v>
@@ -3810,7 +3826,7 @@
         </is>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45860.72799202533</v>
+        <v>45860.73447785605</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>45860</v>
@@ -3896,7 +3912,7 @@
         </is>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45859.72799202533</v>
+        <v>45859.73447785605</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>45859</v>
@@ -3980,7 +3996,7 @@
         </is>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45858.72799202533</v>
+        <v>45858.73447785605</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>45858</v>
@@ -4066,7 +4082,7 @@
         </is>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45858.72799202533</v>
+        <v>45858.73447785605</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>45858</v>
@@ -4150,7 +4166,7 @@
         </is>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45858.72799202533</v>
+        <v>45858.73447785605</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>45858</v>
@@ -4234,7 +4250,7 @@
         </is>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45858.72799202533</v>
+        <v>45858.73447785605</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>45858</v>
@@ -4291,7 +4307,11 @@
       <c r="H46" t="n">
         <v>2018</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -4316,7 +4336,7 @@
         </is>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45857.72799202533</v>
+        <v>45857.73447785605</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>45857</v>
@@ -4400,7 +4420,7 @@
         </is>
       </c>
       <c r="O47" s="2" t="n">
-        <v>45857.72799202533</v>
+        <v>45857.73447785605</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>45857</v>
@@ -4484,7 +4504,7 @@
         </is>
       </c>
       <c r="O48" s="2" t="n">
-        <v>45857.72799202533</v>
+        <v>45857.73447785605</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>45857</v>
@@ -4568,7 +4588,7 @@
         </is>
       </c>
       <c r="O49" s="2" t="n">
-        <v>45856.72799202533</v>
+        <v>45856.73447785605</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>45856</v>
@@ -4654,7 +4674,7 @@
         </is>
       </c>
       <c r="O50" s="2" t="n">
-        <v>45856.72799202533</v>
+        <v>45856.73447785605</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>45856</v>
@@ -4740,7 +4760,7 @@
         </is>
       </c>
       <c r="O51" s="2" t="n">
-        <v>45856.72799202533</v>
+        <v>45856.73447785605</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>45856</v>
@@ -4824,7 +4844,7 @@
         </is>
       </c>
       <c r="O52" s="2" t="n">
-        <v>45856.72799202533</v>
+        <v>45856.73447785605</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>45856</v>
@@ -4908,7 +4928,7 @@
         </is>
       </c>
       <c r="O53" s="2" t="n">
-        <v>45856.72799202533</v>
+        <v>45856.73447785605</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>45856</v>
@@ -4992,7 +5012,7 @@
         </is>
       </c>
       <c r="O54" s="2" t="n">
-        <v>45855.72799202533</v>
+        <v>45855.73447785605</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>45855</v>
@@ -5078,7 +5098,7 @@
         </is>
       </c>
       <c r="O55" s="2" t="n">
-        <v>45855.72799202533</v>
+        <v>45855.73447785605</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>45855</v>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45872.7107515944</v>
+        <v>45872.71670413875</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>45872</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45872.70658492774</v>
+        <v>45872.71253747209</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>45872</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45872.51630714996</v>
+        <v>45872.52225969431</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>45872</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45872.51630714996</v>
+        <v>45872.52225969431</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>45872</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45872.39130714996</v>
+        <v>45872.39725969431</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>45872</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45872.30797381662</v>
+        <v>45872.31392636097</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>45872</v>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45872.30797381662</v>
+        <v>45872.31392636097</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>45872</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45871.72464048328</v>
+        <v>45871.73059302764</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>45871</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45871.72464048328</v>
+        <v>45871.73059302764</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>45871</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45871.72464048328</v>
+        <v>45871.73059302764</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>45871</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>45870</v>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>45870</v>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>45870</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>45870</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>45870</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>45870</v>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45870.72464048328</v>
+        <v>45870.73059302764</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>45870</v>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>45869</v>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>45869</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>45869</v>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>45869</v>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>45869</v>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>45869</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>45869</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45869.72464048328</v>
+        <v>45869.73059302764</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>45869</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45868.72464048328</v>
+        <v>45868.73059302764</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>45868</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45868.72464048328</v>
+        <v>45868.73059302764</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>45868</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45868.72464048328</v>
+        <v>45868.73059302764</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>45868</v>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45868.72464048328</v>
+        <v>45868.73059302764</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>45868</v>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45867.72464048328</v>
+        <v>45867.73059302764</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>45867</v>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45867.72464048328</v>
+        <v>45867.73059302764</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>45867</v>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45867.72464048328</v>
+        <v>45867.73059302764</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>45867</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45867.72464048328</v>
+        <v>45867.73059302764</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>45867</v>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45867.72464048328</v>
+        <v>45867.73059302764</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>45867</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>45866</v>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>45866</v>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>45866</v>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>45866</v>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>45866</v>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>45866</v>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45866.72464048328</v>
+        <v>45866.73059302764</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>45866</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45865.72464048328</v>
+        <v>45865.73059302764</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>45865</v>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45865.72464048328</v>
+        <v>45865.73059302764</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>45865</v>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45865.72464048328</v>
+        <v>45865.73059302764</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>45865</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45865.72464048328</v>
+        <v>45865.73059302764</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>45865</v>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="O47" s="2" t="n">
-        <v>45865.72464048328</v>
+        <v>45865.73059302764</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>45865</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="O48" s="2" t="n">
-        <v>45864.72464048328</v>
+        <v>45864.73059302764</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>45864</v>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="O49" s="2" t="n">
-        <v>45864.72464048328</v>
+        <v>45864.73059302764</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>45864</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="O50" s="2" t="n">
-        <v>45864.72464048328</v>
+        <v>45864.73059302764</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>45864</v>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="O51" s="2" t="n">
-        <v>45863.72464048328</v>
+        <v>45863.73059302764</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>45863</v>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="O52" s="2" t="n">
-        <v>45863.72464048328</v>
+        <v>45863.73059302764</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>45863</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="O53" s="2" t="n">
-        <v>45863.72464048328</v>
+        <v>45863.73059302764</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>45863</v>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="O54" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>45862</v>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="O55" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>45862</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="O56" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>45862</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="O57" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>45862</v>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="O58" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>45862</v>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="O59" s="2" t="n">
-        <v>45862.72464048328</v>
+        <v>45862.73059302764</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>45862</v>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="O60" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>45861</v>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="O61" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>45861</v>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="O62" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>45861</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="O63" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>45861</v>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="O64" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>45861</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="O65" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>45861</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="O66" s="2" t="n">
-        <v>45861.72464048328</v>
+        <v>45861.73059302764</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>45861</v>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="O67" s="2" t="n">
-        <v>45860.72464048328</v>
+        <v>45860.73059302764</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>45860</v>
@@ -6144,7 +6144,7 @@
         </is>
       </c>
       <c r="O68" s="2" t="n">
-        <v>45860.72464048328</v>
+        <v>45860.73059302764</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>45860</v>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="O69" s="2" t="n">
-        <v>45860.72464048328</v>
+        <v>45860.73059302764</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>45860</v>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="O70" s="2" t="n">
-        <v>45860.72464048328</v>
+        <v>45860.73059302764</v>
       </c>
       <c r="P70" s="3" t="n">
         <v>45860</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="O71" s="2" t="n">
-        <v>45860.72464048328</v>
+        <v>45860.73059302764</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>45860</v>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="O72" s="2" t="n">
-        <v>45859.72464048328</v>
+        <v>45859.73059302764</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>45859</v>
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="O73" s="2" t="n">
-        <v>45859.72464048328</v>
+        <v>45859.73059302764</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>45859</v>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="O74" s="2" t="n">
-        <v>45859.72464048328</v>
+        <v>45859.73059302764</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>45859</v>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="O75" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>45858</v>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="O76" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>45858</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="O77" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>45858</v>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="O78" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>45858</v>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="O79" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>45858</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="O80" s="2" t="n">
-        <v>45858.72464048328</v>
+        <v>45858.73059302764</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>45858</v>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="O81" s="2" t="n">
-        <v>45857.72464048328</v>
+        <v>45857.73059302764</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>45857</v>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="O82" s="2" t="n">
-        <v>45857.72464048328</v>
+        <v>45857.73059302764</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>45857</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="O83" s="2" t="n">
-        <v>45857.72464048328</v>
+        <v>45857.73059302764</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>45857</v>
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="O84" s="2" t="n">
-        <v>45856.72464048328</v>
+        <v>45856.73059302764</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>45856</v>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="O85" s="2" t="n">
-        <v>45856.72464048328</v>
+        <v>45856.73059302764</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>45856</v>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="O86" s="2" t="n">
-        <v>45856.72464048328</v>
+        <v>45856.73059302764</v>
       </c>
       <c r="P86" s="3" t="n">
         <v>45856</v>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="O87" s="2" t="n">
-        <v>45856.72464048328</v>
+        <v>45856.73059302764</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>45856</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="O88" s="2" t="n">
-        <v>45855.72464048328</v>
+        <v>45855.73059302764</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>45855</v>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="O89" s="2" t="n">
-        <v>45855.72464048328</v>
+        <v>45855.73059302764</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>45855</v>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="O90" s="2" t="n">
-        <v>45855.72464048328</v>
+        <v>45855.73059302764</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>45855</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="O91" s="2" t="n">
-        <v>45854.72464048328</v>
+        <v>45854.73059302764</v>
       </c>
       <c r="P91" s="3" t="n">
         <v>45854</v>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="O92" s="2" t="n">
-        <v>45854.72464048328</v>
+        <v>45854.73059302764</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>45854</v>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="O93" s="2" t="n">
-        <v>45854.72464048328</v>
+        <v>45854.73059302764</v>
       </c>
       <c r="P93" s="3" t="n">
         <v>45854</v>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="O94" s="2" t="n">
-        <v>45854.72464048328</v>
+        <v>45854.73059302764</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>45854</v>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="O95" s="2" t="n">
-        <v>45854.72464048328</v>
+        <v>45854.73059302764</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>45854</v>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="O96" s="2" t="n">
-        <v>45853.72464048328</v>
+        <v>45853.73059302764</v>
       </c>
       <c r="P96" s="3" t="n">
         <v>45853</v>
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="O97" s="2" t="n">
-        <v>45853.72464048328</v>
+        <v>45853.73059302764</v>
       </c>
       <c r="P97" s="3" t="n">
         <v>45853</v>
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="O98" s="2" t="n">
-        <v>45853.72464048328</v>
+        <v>45853.73059302764</v>
       </c>
       <c r="P98" s="3" t="n">
         <v>45853</v>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="O99" s="2" t="n">
-        <v>45853.72464048328</v>
+        <v>45853.73059302764</v>
       </c>
       <c r="P99" s="3" t="n">
         <v>45853</v>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="O100" s="2" t="n">
-        <v>45852.72464048328</v>
+        <v>45852.73059302764</v>
       </c>
       <c r="P100" s="3" t="n">
         <v>45852</v>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="O101" s="2" t="n">
-        <v>45852.72464048328</v>
+        <v>45852.73059302764</v>
       </c>
       <c r="P101" s="3" t="n">
         <v>45852</v>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="O102" s="2" t="n">
-        <v>45852.72464048328</v>
+        <v>45852.73059302764</v>
       </c>
       <c r="P102" s="3" t="n">
         <v>45852</v>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="O103" s="2" t="n">
-        <v>45852.72464048328</v>
+        <v>45852.73059302764</v>
       </c>
       <c r="P103" s="3" t="n">
         <v>45852</v>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="O104" s="2" t="n">
-        <v>45852.72464048328</v>
+        <v>45852.73059302764</v>
       </c>
       <c r="P104" s="3" t="n">
         <v>45852</v>
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="O105" s="2" t="n">
-        <v>45851.72464048328</v>
+        <v>45851.73059302764</v>
       </c>
       <c r="P105" s="3" t="n">
         <v>45851</v>
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="O106" s="2" t="n">
-        <v>45851.72464048328</v>
+        <v>45851.73059302764</v>
       </c>
       <c r="P106" s="3" t="n">
         <v>45851</v>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="O107" s="2" t="n">
-        <v>45851.72464048328</v>
+        <v>45851.73059302764</v>
       </c>
       <c r="P107" s="3" t="n">
         <v>45851</v>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="O108" s="2" t="n">
-        <v>45850.72464048328</v>
+        <v>45850.73059302764</v>
       </c>
       <c r="P108" s="3" t="n">
         <v>45850</v>
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="O109" s="2" t="n">
-        <v>45849.72464048328</v>
+        <v>45849.73059302764</v>
       </c>
       <c r="P109" s="3" t="n">
         <v>45849</v>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="O110" s="2" t="n">
-        <v>45849.72464048328</v>
+        <v>45849.73059302764</v>
       </c>
       <c r="P110" s="3" t="n">
         <v>45849</v>
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="O111" s="2" t="n">
-        <v>45849.72464048328</v>
+        <v>45849.73059302764</v>
       </c>
       <c r="P111" s="3" t="n">
         <v>45849</v>
@@ -9836,7 +9836,7 @@
         </is>
       </c>
       <c r="O112" s="2" t="n">
-        <v>45848.72464048328</v>
+        <v>45848.73059302764</v>
       </c>
       <c r="P112" s="3" t="n">
         <v>45848</v>
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="O113" s="2" t="n">
-        <v>45848.72464048328</v>
+        <v>45848.73059302764</v>
       </c>
       <c r="P113" s="3" t="n">
         <v>45848</v>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="O114" s="2" t="n">
-        <v>45848.72464048328</v>
+        <v>45848.73059302764</v>
       </c>
       <c r="P114" s="3" t="n">
         <v>45848</v>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="O115" s="2" t="n">
-        <v>45847.72464048328</v>
+        <v>45847.73059302764</v>
       </c>
       <c r="P115" s="3" t="n">
         <v>45847</v>
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="O116" s="2" t="n">
-        <v>45847.72464048328</v>
+        <v>45847.73059302764</v>
       </c>
       <c r="P116" s="3" t="n">
         <v>45847</v>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="O117" s="2" t="n">
-        <v>45847.72464048328</v>
+        <v>45847.73059302764</v>
       </c>
       <c r="P117" s="3" t="n">
         <v>45847</v>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
       <c r="O118" s="2" t="n">
-        <v>45846.72464048328</v>
+        <v>45846.73059302764</v>
       </c>
       <c r="P118" s="3" t="n">
         <v>45846</v>
@@ -10426,7 +10426,7 @@
         </is>
       </c>
       <c r="O119" s="2" t="n">
-        <v>45846.72464048328</v>
+        <v>45846.73059302764</v>
       </c>
       <c r="P119" s="3" t="n">
         <v>45846</v>
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="O120" s="2" t="n">
-        <v>45845.72464048328</v>
+        <v>45845.73059302764</v>
       </c>
       <c r="P120" s="3" t="n">
         <v>45845</v>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="O121" s="2" t="n">
-        <v>45845.72464048328</v>
+        <v>45845.73059302764</v>
       </c>
       <c r="P121" s="3" t="n">
         <v>45845</v>
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="O122" s="2" t="n">
-        <v>45845.72464048328</v>
+        <v>45845.73059302764</v>
       </c>
       <c r="P122" s="3" t="n">
         <v>45845</v>
@@ -10758,7 +10758,7 @@
         </is>
       </c>
       <c r="O123" s="2" t="n">
-        <v>45844.72464048328</v>
+        <v>45844.73059302764</v>
       </c>
       <c r="P123" s="3" t="n">
         <v>45844</v>
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="O124" s="2" t="n">
-        <v>45843.72464048328</v>
+        <v>45843.73059302764</v>
       </c>
       <c r="P124" s="3" t="n">
         <v>45843</v>
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="O125" s="2" t="n">
-        <v>45843.72464048328</v>
+        <v>45843.73059302764</v>
       </c>
       <c r="P125" s="3" t="n">
         <v>45843</v>
